--- a/src/Tests/Templates/Contacts.xlsx
+++ b/src/Tests/Templates/Contacts.xlsx
@@ -124,6 +124,21 @@
   </x:si>
   <x:si>
     <x:t>17.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Загружен частично</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.03.2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Петров Петр Петрович". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Персоны" с именем "Владимиров Владимир Владимирович". Проверьте, что выбрана верная запись.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -619,13 +634,13 @@
       <x:c r="I2" s="5"/>
       <x:c r="J2" s="5"/>
       <x:c r="K2" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="L2" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M2" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:13" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -650,13 +665,13 @@
       <x:c r="I3" s="5"/>
       <x:c r="J3" s="5"/>
       <x:c r="K3" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="L3" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M3" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:13" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -681,13 +696,13 @@
       <x:c r="I4" s="5"/>
       <x:c r="J4" s="5"/>
       <x:c r="K4" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="L4" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M4" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:13" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
